--- a/Assets/Assets/Datas/cardsdata.xlsx
+++ b/Assets/Assets/Datas/cardsdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tian\DreamCardGame\Assets\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E89F8D1-68A5-474C-BA62-D9B72FF6FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AEB8D5-2061-4313-B49A-EE26073E01D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艺妓卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼物卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>礼物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,47 +46,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舞扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古书卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日式篠笛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三味線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油纸伞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱花簪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>personcard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>giftcard</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦境神明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信物卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噩梦</t>
+  </si>
+  <si>
+    <t>白日梦</t>
+  </si>
+  <si>
+    <t>治愈梦</t>
+  </si>
+  <si>
+    <t>夜悚</t>
+  </si>
+  <si>
+    <t>创造梦</t>
+  </si>
+  <si>
+    <t>超自然梦</t>
+  </si>
+  <si>
+    <t>预言梦</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +104,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -140,11 +141,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +429,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -444,126 +448,126 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -580,27 +584,27 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -608,19 +612,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -628,19 +632,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -648,19 +652,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -668,19 +672,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -688,19 +692,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -708,19 +712,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -728,19 +732,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -748,19 +752,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -768,19 +772,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -788,19 +792,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -808,19 +812,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -828,19 +832,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -848,19 +852,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -868,19 +872,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -888,19 +892,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -908,19 +912,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -928,19 +932,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -948,19 +952,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -968,19 +972,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -988,19 +992,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F30">
         <v>6</v>
